--- a/flag/AQB_classification/powerSource/powerSource_notes_was_flag_OTUs_v3_ARCHIVE.xlsx
+++ b/flag/AQB_classification/powerSource/powerSource_notes_was_flag_OTUs_v3_ARCHIVE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/powerSource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/powerSource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB7AF5-2892-654D-8EF7-687311012965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FDF1CA-3A48-9C43-BBAD-90F8B193DF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14660" yWindow="500" windowWidth="33640" windowHeight="24020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,19 +19,8 @@
     <sheet name="Ishida_etal_PowerSource_matrix2" sheetId="4" r:id="rId4"/>
     <sheet name="powerSource2023" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -5063,9 +5052,6 @@
     <t>AAD35759.1</t>
   </si>
   <si>
-    <t xml:space="preserve">EDR32241.1 </t>
-  </si>
-  <si>
     <t>ACM24086.1</t>
   </si>
   <si>
@@ -5349,6 +5335,9 @@
   </si>
   <si>
     <t>(no close matches on BLAST; genome may have issues)</t>
+  </si>
+  <si>
+    <t>EDR32241.1</t>
   </si>
 </sst>
 </file>
@@ -27116,7 +27105,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C953">
+  <sortState ref="A2:C953">
     <sortCondition ref="C2:C953"/>
     <sortCondition ref="B2:B953"/>
   </sortState>
@@ -27138,7 +27127,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27869,8 +27858,8 @@
       <c r="C18" s="16" t="s">
         <v>1564</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>1670</v>
+      <c r="D18" s="14" t="s">
+        <v>1765</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>1624</v>
@@ -27912,7 +27901,7 @@
         <v>1565</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>1625</v>
@@ -27954,7 +27943,7 @@
         <v>1566</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>1626</v>
@@ -27998,7 +27987,7 @@
         <v>1567</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>1627</v>
@@ -28038,10 +28027,10 @@
         <v>1568</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>1543</v>
@@ -28082,7 +28071,7 @@
         <v>1569</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>1628</v>
@@ -28124,10 +28113,10 @@
         <v>1570</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>162</v>
@@ -28166,10 +28155,10 @@
         <v>1570</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>162</v>
@@ -28208,7 +28197,7 @@
         <v>1571</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>1629</v>
@@ -28248,7 +28237,7 @@
         <v>1571</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>1629</v>
@@ -28280,7 +28269,7 @@
         <v>1572</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>1630</v>
@@ -28322,13 +28311,13 @@
         <v>1573</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -28354,13 +28343,13 @@
         <v>1573</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E30" s="14" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>1685</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>1686</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>43</v>
@@ -28396,7 +28385,7 @@
         <v>1574</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>1631</v>
@@ -28438,7 +28427,7 @@
         <v>1575</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>1632</v>
@@ -28524,7 +28513,7 @@
         <v>1576</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>1652</v>
@@ -28566,7 +28555,7 @@
         <v>1577</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>1619</v>
@@ -28621,7 +28610,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="24" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
@@ -28664,7 +28653,7 @@
         <v>1580</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>1636</v>
@@ -28706,7 +28695,7 @@
         <v>1581</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>1637</v>
@@ -28744,13 +28733,13 @@
         <v>1582</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>43</v>
@@ -28786,10 +28775,10 @@
         <v>1582</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>162</v>
@@ -28828,10 +28817,10 @@
         <v>1583</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>162</v>
@@ -28870,7 +28859,7 @@
         <v>1584</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>1638</v>
@@ -28914,10 +28903,10 @@
         <v>1585</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>1539</v>
@@ -28958,13 +28947,13 @@
         <v>1586</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>1658</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>43</v>
@@ -28996,7 +28985,7 @@
         <v>1587</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>1665</v>
@@ -29024,19 +29013,19 @@
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="14" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>1595</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>1641</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>43</v>
@@ -29062,19 +29051,19 @@
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="16"/>
       <c r="B48" s="14" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>1590</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>1642</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -29096,7 +29085,7 @@
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>1596</v>
@@ -29108,7 +29097,7 @@
         <v>1643</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
@@ -29126,19 +29115,19 @@
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>1597</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -29156,19 +29145,19 @@
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="16"/>
       <c r="B51" s="16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>1597</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
@@ -29186,19 +29175,19 @@
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>1597</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -29216,19 +29205,19 @@
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
       <c r="B53" s="16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>1597</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
@@ -29252,13 +29241,13 @@
         <v>1588</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>43</v>
@@ -29294,13 +29283,13 @@
         <v>1588</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>43</v>
@@ -29330,16 +29319,16 @@
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="16"/>
       <c r="B56" s="14" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>1761</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>1762</v>
-      </c>
       <c r="D56" s="16" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>584</v>
@@ -29368,16 +29357,16 @@
         <v>1544</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>1759</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>1760</v>
-      </c>
       <c r="D57" s="16" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>294</v>
@@ -29402,16 +29391,16 @@
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="16"/>
       <c r="B58" s="16" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>1759</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>1760</v>
-      </c>
       <c r="D58" s="16" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>292</v>
@@ -29436,7 +29425,7 @@
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="16"/>
       <c r="B59" s="16" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>1603</v>
@@ -29448,7 +29437,7 @@
         <v>1644</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
@@ -29466,19 +29455,19 @@
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="16"/>
       <c r="B60" s="14" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C60" s="14" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>1729</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>1730</v>
-      </c>
       <c r="F60" s="14" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -29496,19 +29485,19 @@
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="14" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D61" s="16" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F61" s="14" t="s">
         <v>1735</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>1736</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
@@ -29526,19 +29515,19 @@
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="16"/>
       <c r="B62" s="14" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -29560,13 +29549,13 @@
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E63" s="14" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>1737</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>1738</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
@@ -29588,19 +29577,19 @@
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="16"/>
       <c r="B64" s="14" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>1640</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>1639</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -29618,7 +29607,7 @@
     <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" s="16"/>
       <c r="B65" s="16" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>1578</v>
@@ -29656,7 +29645,7 @@
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="16"/>
       <c r="B66" s="16" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>1579</v>
@@ -29698,13 +29687,13 @@
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
@@ -29728,13 +29717,13 @@
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="14" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -29754,17 +29743,17 @@
     <row r="69" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="16" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>43</v>
@@ -29796,17 +29785,17 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="16"/>
       <c r="B70" s="16" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G70" s="17" t="s">
         <v>43</v>
@@ -29830,17 +29819,17 @@
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="16"/>
       <c r="B71" s="16" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
@@ -29870,13 +29859,13 @@
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="14" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>43</v>
@@ -29997,7 +29986,7 @@
         <v>1599</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>292</v>
